--- a/script/summary/summary_grey_v3.xlsx
+++ b/script/summary/summary_grey_v3.xlsx
@@ -76,157 +76,157 @@
     <t>grey_v3</t>
   </si>
   <si>
-    <t>2023-05-28 23:53:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-28 23:54:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-28 23:56:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-28 23:57:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-28 23:59:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:00:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:02:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:03:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:05:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:07:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:08:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:10:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:11:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:13:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:14:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:16:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:18:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:19:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:21:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:22:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:24:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:25:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:27:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:29:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-29 00:30:38 WIB</t>
-  </si>
-  <si>
-    <t>1685292781</t>
-  </si>
-  <si>
-    <t>1685292874</t>
-  </si>
-  <si>
-    <t>1685292967</t>
-  </si>
-  <si>
-    <t>1685293060</t>
-  </si>
-  <si>
-    <t>1685293153</t>
-  </si>
-  <si>
-    <t>1685293246</t>
-  </si>
-  <si>
-    <t>1685293340</t>
-  </si>
-  <si>
-    <t>1685293434</t>
-  </si>
-  <si>
-    <t>1685293528</t>
-  </si>
-  <si>
-    <t>1685293622</t>
-  </si>
-  <si>
-    <t>1685293716</t>
-  </si>
-  <si>
-    <t>1685293810</t>
-  </si>
-  <si>
-    <t>1685293904</t>
-  </si>
-  <si>
-    <t>1685293998</t>
-  </si>
-  <si>
-    <t>1685294092</t>
-  </si>
-  <si>
-    <t>1685294186</t>
-  </si>
-  <si>
-    <t>1685294280</t>
-  </si>
-  <si>
-    <t>1685294374</t>
-  </si>
-  <si>
-    <t>1685294469</t>
-  </si>
-  <si>
-    <t>1685294563</t>
-  </si>
-  <si>
-    <t>1685294658</t>
-  </si>
-  <si>
-    <t>1685294753</t>
-  </si>
-  <si>
-    <t>1685294847</t>
-  </si>
-  <si>
-    <t>1685294943</t>
-  </si>
-  <si>
-    <t>1685295038</t>
-  </si>
-  <si>
-    <t>GET /node</t>
+    <t>2023-07-01 15:08:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:10:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:12:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:13:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:15:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:16:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:18:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:19:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:21:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:22:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:24:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:26:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:27:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:29:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:30:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:32:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:33:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:35:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:37:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:08:34 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:10:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:11:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:13:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:14:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-07-01 16:16:24 WIB</t>
+  </si>
+  <si>
+    <t>1688198937</t>
+  </si>
+  <si>
+    <t>1688199030</t>
+  </si>
+  <si>
+    <t>1688199123</t>
+  </si>
+  <si>
+    <t>1688199216</t>
+  </si>
+  <si>
+    <t>1688199309</t>
+  </si>
+  <si>
+    <t>1688199402</t>
+  </si>
+  <si>
+    <t>1688199495</t>
+  </si>
+  <si>
+    <t>1688199588</t>
+  </si>
+  <si>
+    <t>1688199682</t>
+  </si>
+  <si>
+    <t>1688199775</t>
+  </si>
+  <si>
+    <t>1688199868</t>
+  </si>
+  <si>
+    <t>1688199962</t>
+  </si>
+  <si>
+    <t>1688200057</t>
+  </si>
+  <si>
+    <t>1688200151</t>
+  </si>
+  <si>
+    <t>1688200245</t>
+  </si>
+  <si>
+    <t>1688200339</t>
+  </si>
+  <si>
+    <t>1688200433</t>
+  </si>
+  <si>
+    <t>1688200526</t>
+  </si>
+  <si>
+    <t>1688200620</t>
+  </si>
+  <si>
+    <t>1688202514</t>
+  </si>
+  <si>
+    <t>1688202608</t>
+  </si>
+  <si>
+    <t>1688202702</t>
+  </si>
+  <si>
+    <t>1688202796</t>
+  </si>
+  <si>
+    <t>1688202890</t>
+  </si>
+  <si>
+    <t>1688202984</t>
+  </si>
+  <si>
+    <t>GET /node/</t>
   </si>
   <si>
     <t>200</t>
@@ -607,9 +607,7 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
@@ -701,37 +699,37 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>15493</v>
+        <v>29237</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.03</v>
+        <v>59.47</v>
       </c>
       <c r="K2">
-        <v>632.96</v>
+        <v>1204.05</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>262.46</v>
+        <v>491.63</v>
       </c>
       <c r="N2">
-        <v>10.72</v>
+        <v>20.25</v>
       </c>
       <c r="O2">
-        <v>196.24</v>
+        <v>198.22</v>
       </c>
       <c r="P2">
-        <v>7742</v>
+        <v>14597</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>10.96</v>
+        <v>14.5</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -760,37 +758,37 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>15061</v>
+        <v>26172</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.12</v>
+        <v>59.36</v>
       </c>
       <c r="K3">
-        <v>615.27</v>
+        <v>1073.68</v>
       </c>
       <c r="L3">
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="M3">
-        <v>254.75</v>
+        <v>440.9</v>
       </c>
       <c r="N3">
-        <v>10.41</v>
+        <v>18.09</v>
       </c>
       <c r="O3">
-        <v>196.02</v>
+        <v>198.46</v>
       </c>
       <c r="P3">
-        <v>7525</v>
+        <v>13046</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>14.32</v>
+        <v>20.04</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -819,37 +817,37 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>15232</v>
+        <v>24136</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>59.06</v>
+        <v>59.39</v>
       </c>
       <c r="K4">
-        <v>621.83</v>
+        <v>986.5</v>
       </c>
       <c r="L4">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="M4">
-        <v>257.91</v>
+        <v>406.4</v>
       </c>
       <c r="N4">
-        <v>10.53</v>
+        <v>16.61</v>
       </c>
       <c r="O4">
-        <v>195.48</v>
+        <v>196.08</v>
       </c>
       <c r="P4">
-        <v>7608</v>
+        <v>12017</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>13.23</v>
+        <v>20.52</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -878,37 +876,37 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>15554</v>
+        <v>25092</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.26</v>
+        <v>59.19</v>
       </c>
       <c r="K5">
-        <v>635.33</v>
+        <v>1027.85</v>
       </c>
       <c r="L5">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="M5">
-        <v>262.47</v>
+        <v>423.92</v>
       </c>
       <c r="N5">
-        <v>10.72</v>
+        <v>17.37</v>
       </c>
       <c r="O5">
-        <v>195.64</v>
+        <v>196.64</v>
       </c>
       <c r="P5">
-        <v>7771</v>
+        <v>12498</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>10.55</v>
+        <v>20.14</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -937,37 +935,37 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>15486</v>
+        <v>25204</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.33</v>
+        <v>59.53</v>
       </c>
       <c r="K6">
-        <v>632.55</v>
+        <v>1033.3</v>
       </c>
       <c r="L6">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="M6">
-        <v>261.01</v>
+        <v>423.38</v>
       </c>
       <c r="N6">
-        <v>10.66</v>
+        <v>17.36</v>
       </c>
       <c r="O6">
-        <v>194.54</v>
+        <v>198.35</v>
       </c>
       <c r="P6">
-        <v>7737</v>
+        <v>12568</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>15.82</v>
+        <v>19.3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -996,37 +994,37 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>16281</v>
+        <v>26183</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.22</v>
+        <v>59.47</v>
       </c>
       <c r="K7">
-        <v>664.08</v>
+        <v>1074.67</v>
       </c>
       <c r="L7">
-        <v>1.38</v>
+        <v>0.89</v>
       </c>
       <c r="M7">
-        <v>274.92</v>
+        <v>440.27</v>
       </c>
       <c r="N7">
-        <v>11.21</v>
+        <v>18.07</v>
       </c>
       <c r="O7">
-        <v>378.82</v>
+        <v>391.46</v>
       </c>
       <c r="P7">
-        <v>8129</v>
+        <v>13059</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>29.84</v>
+        <v>21.26</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1055,37 +1053,37 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>16341</v>
+        <v>25282</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.73</v>
+        <v>59.16</v>
       </c>
       <c r="K8">
-        <v>667.1900000000001</v>
+        <v>1037.09</v>
       </c>
       <c r="L8">
-        <v>1.41</v>
+        <v>0.92</v>
       </c>
       <c r="M8">
-        <v>273.58</v>
+        <v>427.35</v>
       </c>
       <c r="N8">
-        <v>11.17</v>
+        <v>17.53</v>
       </c>
       <c r="O8">
-        <v>386.27</v>
+        <v>391.12</v>
       </c>
       <c r="P8">
-        <v>8164</v>
+        <v>12608</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>18.65</v>
+        <v>27.81</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1114,37 +1112,37 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>16302</v>
+        <v>24493</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.95</v>
+        <v>59.08</v>
       </c>
       <c r="K9">
-        <v>665.87</v>
+        <v>1003.64</v>
       </c>
       <c r="L9">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="M9">
-        <v>271.93</v>
+        <v>414.57</v>
       </c>
       <c r="N9">
-        <v>11.11</v>
+        <v>16.99</v>
       </c>
       <c r="O9">
-        <v>384.81</v>
+        <v>393.42</v>
       </c>
       <c r="P9">
-        <v>8145</v>
+        <v>12206</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>13.64</v>
+        <v>25.58</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1173,37 +1171,37 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>16139</v>
+        <v>26947</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.96</v>
+        <v>59.98</v>
       </c>
       <c r="K10">
-        <v>659.3200000000001</v>
+        <v>1106.14</v>
       </c>
       <c r="L10">
-        <v>1.44</v>
+        <v>0.87</v>
       </c>
       <c r="M10">
-        <v>269.16</v>
+        <v>449.27</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>18.44</v>
       </c>
       <c r="O10">
-        <v>387.34</v>
+        <v>392.47</v>
       </c>
       <c r="P10">
-        <v>8065</v>
+        <v>13437</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>23.53</v>
+        <v>22.18</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1232,37 +1230,37 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>15307</v>
+        <v>26141</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.78</v>
+        <v>59.14</v>
       </c>
       <c r="K11">
-        <v>624.78</v>
+        <v>1072.36</v>
       </c>
       <c r="L11">
-        <v>1.47</v>
+        <v>0.89</v>
       </c>
       <c r="M11">
-        <v>256.06</v>
+        <v>442.02</v>
       </c>
       <c r="N11">
-        <v>10.45</v>
+        <v>18.13</v>
       </c>
       <c r="O11">
-        <v>376.24</v>
+        <v>391.78</v>
       </c>
       <c r="P11">
-        <v>7646</v>
+        <v>13031</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>22.24</v>
+        <v>22.18</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1291,37 +1289,37 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>16104</v>
+        <v>24773</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.94</v>
+        <v>59.08</v>
       </c>
       <c r="K12">
-        <v>658.01</v>
+        <v>1015.85</v>
       </c>
       <c r="L12">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="M12">
-        <v>268.67</v>
+        <v>419.31</v>
       </c>
       <c r="N12">
-        <v>10.98</v>
+        <v>17.19</v>
       </c>
       <c r="O12">
-        <v>560.74</v>
+        <v>583.38</v>
       </c>
       <c r="P12">
-        <v>8047</v>
+        <v>12345</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>26.61</v>
+        <v>24.91</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1350,37 +1348,37 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>18535</v>
+        <v>26376</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>59.72</v>
+        <v>59.67</v>
       </c>
       <c r="K13">
-        <v>757.48</v>
+        <v>1081.05</v>
       </c>
       <c r="L13">
-        <v>1.81</v>
+        <v>1.31</v>
       </c>
       <c r="M13">
-        <v>310.37</v>
+        <v>442.03</v>
       </c>
       <c r="N13">
-        <v>12.68</v>
+        <v>18.12</v>
       </c>
       <c r="O13">
-        <v>560.98</v>
+        <v>577.29</v>
       </c>
       <c r="P13">
-        <v>9263</v>
+        <v>13146</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>26.94</v>
+        <v>28.06</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1409,37 +1407,37 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>16714</v>
+        <v>26008</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.15</v>
+        <v>59.92</v>
       </c>
       <c r="K14">
-        <v>683.22</v>
+        <v>1066.25</v>
       </c>
       <c r="L14">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="M14">
-        <v>282.57</v>
+        <v>434.05</v>
       </c>
       <c r="N14">
-        <v>11.55</v>
+        <v>17.79</v>
       </c>
       <c r="O14">
-        <v>571.99</v>
+        <v>566.95</v>
       </c>
       <c r="P14">
-        <v>8353</v>
+        <v>12962</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>21.05</v>
+        <v>33.69</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1468,37 +1466,37 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>16906</v>
+        <v>24573</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.36</v>
+        <v>59.89</v>
       </c>
       <c r="K15">
-        <v>691.08</v>
+        <v>1005.8</v>
       </c>
       <c r="L15">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="M15">
-        <v>284.8</v>
+        <v>410.3</v>
       </c>
       <c r="N15">
-        <v>11.64</v>
+        <v>16.79</v>
       </c>
       <c r="O15">
-        <v>551.98</v>
+        <v>582.96</v>
       </c>
       <c r="P15">
-        <v>8449</v>
+        <v>12238</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>31.87</v>
+        <v>35.16</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1527,37 +1525,37 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>16499</v>
+        <v>25829</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.51</v>
+        <v>59.67</v>
       </c>
       <c r="K16">
-        <v>674.38</v>
+        <v>1058.5</v>
       </c>
       <c r="L16">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="M16">
-        <v>277.25</v>
+        <v>432.86</v>
       </c>
       <c r="N16">
-        <v>11.33</v>
+        <v>17.74</v>
       </c>
       <c r="O16">
-        <v>536.4400000000001</v>
+        <v>582.59</v>
       </c>
       <c r="P16">
-        <v>8245</v>
+        <v>12875</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>38.2</v>
+        <v>30.23</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1586,37 +1584,37 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>16272</v>
+        <v>26969</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>59.83</v>
+        <v>59.64</v>
       </c>
       <c r="K17">
-        <v>664.4</v>
+        <v>1106.72</v>
       </c>
       <c r="L17">
-        <v>2.67</v>
+        <v>1.71</v>
       </c>
       <c r="M17">
-        <v>271.97</v>
+        <v>452.2</v>
       </c>
       <c r="N17">
-        <v>11.1</v>
+        <v>18.56</v>
       </c>
       <c r="O17">
-        <v>725</v>
+        <v>771.24</v>
       </c>
       <c r="P17">
-        <v>8127</v>
+        <v>13449</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>34.51</v>
+        <v>26.6</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1645,37 +1643,37 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>16904</v>
+        <v>25701</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>59.28</v>
+        <v>59.7</v>
       </c>
       <c r="K18">
-        <v>691.16</v>
+        <v>1052.31</v>
       </c>
       <c r="L18">
-        <v>2.62</v>
+        <v>1.77</v>
       </c>
       <c r="M18">
-        <v>285.16</v>
+        <v>430.5</v>
       </c>
       <c r="N18">
-        <v>11.66</v>
+        <v>17.63</v>
       </c>
       <c r="O18">
-        <v>746.1799999999999</v>
+        <v>762.98</v>
       </c>
       <c r="P18">
-        <v>8448</v>
+        <v>12801</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>31.98</v>
+        <v>38.69</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1704,37 +1702,37 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>17202</v>
+        <v>25812</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.93</v>
+        <v>59.03</v>
       </c>
       <c r="K19">
-        <v>703.11</v>
+        <v>1058.41</v>
       </c>
       <c r="L19">
-        <v>2.59</v>
+        <v>1.7</v>
       </c>
       <c r="M19">
-        <v>287.03</v>
+        <v>437.27</v>
       </c>
       <c r="N19">
-        <v>11.73</v>
+        <v>17.93</v>
       </c>
       <c r="O19">
-        <v>742.74</v>
+        <v>741.1900000000001</v>
       </c>
       <c r="P19">
-        <v>8595</v>
+        <v>12870</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>33.23</v>
+        <v>58.11</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1763,37 +1761,37 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>17367</v>
+        <v>35890</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>59.49</v>
+        <v>59.38</v>
       </c>
       <c r="K20">
-        <v>710.0700000000001</v>
+        <v>1482.55</v>
       </c>
       <c r="L20">
-        <v>2.58</v>
+        <v>1.27</v>
       </c>
       <c r="M20">
-        <v>291.93</v>
+        <v>604.41</v>
       </c>
       <c r="N20">
-        <v>11.94</v>
+        <v>24.97</v>
       </c>
       <c r="O20">
-        <v>753.41</v>
+        <v>768.22</v>
       </c>
       <c r="P20">
-        <v>8680</v>
+        <v>17948</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>21.28</v>
+        <v>20.45</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1822,37 +1820,37 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>16824</v>
+        <v>25233</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>59.12</v>
+        <v>59.54</v>
       </c>
       <c r="K21">
-        <v>688.05</v>
+        <v>1034.93</v>
       </c>
       <c r="L21">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="M21">
-        <v>284.57</v>
+        <v>423.8</v>
       </c>
       <c r="N21">
-        <v>11.64</v>
+        <v>17.38</v>
       </c>
       <c r="O21">
-        <v>749.4299999999999</v>
+        <v>760.22</v>
       </c>
       <c r="P21">
-        <v>8409</v>
+        <v>12575</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>23.5</v>
+        <v>42.89</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1881,37 +1879,37 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>17349</v>
+        <v>24893</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>59.81</v>
+        <v>59.71</v>
       </c>
       <c r="K22">
-        <v>710.39</v>
+        <v>1020.32</v>
       </c>
       <c r="L22">
-        <v>3.21</v>
+        <v>2.25</v>
       </c>
       <c r="M22">
-        <v>290.07</v>
+        <v>416.9</v>
       </c>
       <c r="N22">
-        <v>11.88</v>
+        <v>17.09</v>
       </c>
       <c r="O22">
-        <v>931.4400000000001</v>
+        <v>936.66</v>
       </c>
       <c r="P22">
-        <v>8677</v>
+        <v>12403</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>28.55</v>
+        <v>41.37</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -1940,37 +1938,37 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>17635</v>
+        <v>28796</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>59.85</v>
+        <v>59.16</v>
       </c>
       <c r="K23">
-        <v>721.9299999999999</v>
+        <v>1184.91</v>
       </c>
       <c r="L23">
-        <v>3.16</v>
+        <v>1.95</v>
       </c>
       <c r="M23">
-        <v>294.65</v>
+        <v>486.75</v>
       </c>
       <c r="N23">
-        <v>12.06</v>
+        <v>20.03</v>
       </c>
       <c r="O23">
-        <v>929.76</v>
+        <v>949.8</v>
       </c>
       <c r="P23">
-        <v>8818</v>
+        <v>14376</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>36.34</v>
+        <v>41.81</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -1999,37 +1997,37 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>17344</v>
+        <v>25539</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>59.97</v>
+        <v>59.58</v>
       </c>
       <c r="K24">
-        <v>709.17</v>
+        <v>1046.43</v>
       </c>
       <c r="L24">
-        <v>3.21</v>
+        <v>2.16</v>
       </c>
       <c r="M24">
-        <v>289.21</v>
+        <v>428.65</v>
       </c>
       <c r="N24">
-        <v>11.83</v>
+        <v>17.56</v>
       </c>
       <c r="O24">
-        <v>928.46</v>
+        <v>926.78</v>
       </c>
       <c r="P24">
-        <v>8668</v>
+        <v>12724</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>45.24</v>
+        <v>44.94</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2058,37 +2056,37 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>16915</v>
+        <v>26769</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>59.68</v>
+        <v>59.78</v>
       </c>
       <c r="K25">
-        <v>692.46</v>
+        <v>1099.35</v>
       </c>
       <c r="L25">
-        <v>3.24</v>
+        <v>2.11</v>
       </c>
       <c r="M25">
-        <v>283.43</v>
+        <v>447.79</v>
       </c>
       <c r="N25">
-        <v>11.6</v>
+        <v>18.39</v>
       </c>
       <c r="O25">
-        <v>917.54</v>
+        <v>946.48</v>
       </c>
       <c r="P25">
-        <v>8458</v>
+        <v>13346</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>33.68</v>
+        <v>41.37</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2117,37 +2115,37 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>19205</v>
+        <v>27356</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>59.95</v>
+        <v>59.16</v>
       </c>
       <c r="K26">
-        <v>786.2</v>
+        <v>1122.08</v>
       </c>
       <c r="L26">
-        <v>2.85</v>
+        <v>2.06</v>
       </c>
       <c r="M26">
-        <v>320.35</v>
+        <v>462.41</v>
       </c>
       <c r="N26">
-        <v>13.11</v>
+        <v>18.97</v>
       </c>
       <c r="O26">
-        <v>912.04</v>
+        <v>950.64</v>
       </c>
       <c r="P26">
-        <v>9603</v>
+        <v>13633</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>38.36</v>
+        <v>34.43</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2169,10 +2167,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -2242,37 +2240,37 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17689.6</v>
+        <v>26670.6</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>59.852</v>
+        <v>59.47799999999999</v>
       </c>
       <c r="H2">
-        <v>724.03</v>
+        <v>1094.618</v>
       </c>
       <c r="I2">
-        <v>3.134</v>
+        <v>2.106</v>
       </c>
       <c r="J2">
-        <v>295.542</v>
+        <v>448.5</v>
       </c>
       <c r="K2">
-        <v>12.096</v>
+        <v>18.408</v>
       </c>
       <c r="L2">
-        <v>923.848</v>
+        <v>942.0719999999999</v>
       </c>
       <c r="M2">
-        <v>8844.799999999999</v>
+        <v>13296.4</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>36.434</v>
+        <v>40.784</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2288,37 +2286,37 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>15365.2</v>
+        <v>25968.2</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.16</v>
+        <v>59.388</v>
       </c>
       <c r="H3">
-        <v>627.588</v>
+        <v>1065.076</v>
       </c>
       <c r="I3">
-        <v>0.756</v>
+        <v>0.452</v>
       </c>
       <c r="J3">
-        <v>259.72</v>
+        <v>437.246</v>
       </c>
       <c r="K3">
-        <v>10.608</v>
+        <v>17.936</v>
       </c>
       <c r="L3">
-        <v>195.584</v>
+        <v>197.55</v>
       </c>
       <c r="M3">
-        <v>7676.6</v>
+        <v>12945.2</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.976</v>
+        <v>18.9</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2334,37 +2332,37 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>16074</v>
+        <v>25809.2</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.72799999999999</v>
+        <v>59.366</v>
       </c>
       <c r="H4">
-        <v>656.248</v>
+        <v>1058.78</v>
       </c>
       <c r="I4">
-        <v>1.424</v>
+        <v>0.9039999999999999</v>
       </c>
       <c r="J4">
-        <v>269.13</v>
+        <v>434.696</v>
       </c>
       <c r="K4">
-        <v>10.988</v>
+        <v>17.832</v>
       </c>
       <c r="L4">
-        <v>382.696</v>
+        <v>392.05</v>
       </c>
       <c r="M4">
-        <v>8029.8</v>
+        <v>12868.2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.58</v>
+        <v>23.802</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2380,37 +2378,37 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>16951.6</v>
+        <v>25511.8</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.536</v>
+        <v>59.646</v>
       </c>
       <c r="H5">
-        <v>692.8340000000001</v>
+        <v>1045.49</v>
       </c>
       <c r="I5">
-        <v>1.958</v>
+        <v>1.356</v>
       </c>
       <c r="J5">
-        <v>284.732</v>
+        <v>427.71</v>
       </c>
       <c r="K5">
-        <v>11.636</v>
+        <v>17.526</v>
       </c>
       <c r="L5">
-        <v>556.426</v>
+        <v>578.634</v>
       </c>
       <c r="M5">
-        <v>8471.4</v>
+        <v>12713.2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.934</v>
+        <v>30.41</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2426,37 +2424,37 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>16913.8</v>
+        <v>27921</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>59.52999999999999</v>
+        <v>59.45800000000001</v>
       </c>
       <c r="H6">
-        <v>691.3579999999999</v>
+        <v>1146.984</v>
       </c>
       <c r="I6">
-        <v>2.618</v>
+        <v>1.648</v>
       </c>
       <c r="J6">
-        <v>284.132</v>
+        <v>469.636</v>
       </c>
       <c r="K6">
-        <v>11.614</v>
+        <v>19.294</v>
       </c>
       <c r="L6">
-        <v>743.352</v>
+        <v>760.7700000000001</v>
       </c>
       <c r="M6">
-        <v>8451.799999999999</v>
+        <v>13928.6</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.9</v>
+        <v>37.348</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2480,12 +2478,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -2549,37 +2547,37 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16598.84</v>
+        <v>26376.16</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>59.5612</v>
+        <v>59.46720000000001</v>
       </c>
       <c r="G2">
-        <v>678.4116</v>
+        <v>1082.1896</v>
       </c>
       <c r="H2">
-        <v>1.978</v>
+        <v>1.2932</v>
       </c>
       <c r="I2">
-        <v>278.6512</v>
+        <v>443.5576</v>
       </c>
       <c r="J2">
-        <v>11.3884</v>
+        <v>18.1992</v>
       </c>
       <c r="K2">
-        <v>560.3812</v>
+        <v>574.2152000000001</v>
       </c>
       <c r="L2">
-        <v>8294.879999999999</v>
+        <v>13150.32</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.7648</v>
+        <v>30.2488</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2599,12 +2597,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -2662,37 +2660,37 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>16598.84</v>
+        <v>26376.16</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>59.5612</v>
+        <v>59.46720000000001</v>
       </c>
       <c r="F2">
-        <v>678.4116</v>
+        <v>1082.1896</v>
       </c>
       <c r="G2">
-        <v>1.978</v>
+        <v>1.2932</v>
       </c>
       <c r="H2">
-        <v>278.6512</v>
+        <v>443.5576</v>
       </c>
       <c r="I2">
-        <v>11.3884</v>
+        <v>18.1992</v>
       </c>
       <c r="J2">
-        <v>560.3812</v>
+        <v>574.2152000000001</v>
       </c>
       <c r="K2">
-        <v>8294.879999999999</v>
+        <v>13150.32</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25.7648</v>
+        <v>30.2488</v>
       </c>
       <c r="N2">
         <v>0</v>
